--- a/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C642A6A9-72E2-4703-9F80-A48D30A88A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2813EDEE-9E04-4EB5-9705-D624D856BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B65F82-84D9-4981-8349-87E9CB0609FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E19C70BD-D274-4B5D-B5A9-C1051515ABCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,35%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>30,97%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,568 +164,559 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>40,37%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F14A76-D1C3-448D-A5DF-0673B04F4FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0B4B0-796F-4FDC-9B70-F48288A8D064}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1438,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1447,13 +1438,13 @@
         <v>6244</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1459,13 @@
         <v>98014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>242</v>
@@ -1483,13 +1474,13 @@
         <v>130357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>355</v>
@@ -1498,18 +1489,18 @@
         <v>228371</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1521,13 +1512,13 @@
         <v>244624</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>353</v>
@@ -1536,10 +1527,10 @@
         <v>247966</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>56</v>
@@ -1608,7 +1599,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1614,13 @@
         <v>82096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -1638,13 +1629,13 @@
         <v>103846</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
@@ -1653,13 +1644,13 @@
         <v>185942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1665,13 @@
         <v>23177</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1689,13 +1680,13 @@
         <v>15910</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -1704,13 +1695,13 @@
         <v>39087</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,13 +1716,13 @@
         <v>546904</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>991</v>
@@ -1740,13 +1731,13 @@
         <v>590632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1600</v>
@@ -1755,18 +1746,18 @@
         <v>1137536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1778,13 +1769,13 @@
         <v>581548</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -1793,28 +1784,28 @@
         <v>486051</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
       </c>
       <c r="N14" s="7">
-        <v>1067599</v>
+        <v>1067598</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1820,13 @@
         <v>329551</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>583</v>
@@ -1844,13 +1835,13 @@
         <v>369670</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>936</v>
@@ -1859,13 +1850,13 @@
         <v>699221</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1871,13 @@
         <v>102895</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>297</v>
@@ -1895,13 +1886,13 @@
         <v>177541</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
@@ -1910,13 +1901,13 @@
         <v>280435</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1922,13 @@
         <v>20846</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1946,13 +1937,13 @@
         <v>22459</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -1961,13 +1952,13 @@
         <v>43305</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1973,13 @@
         <v>1034839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1509</v>
@@ -1997,33 +1988,33 @@
         <v>1055721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>2469</v>
       </c>
       <c r="N18" s="7">
-        <v>2090560</v>
+        <v>2090559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2035,13 +2026,13 @@
         <v>389134</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -2050,13 +2041,13 @@
         <v>451124</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>760</v>
@@ -2065,13 +2056,13 @@
         <v>840258</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2077,13 @@
         <v>251857</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -2101,13 +2092,13 @@
         <v>325584</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>724</v>
@@ -2116,13 +2107,13 @@
         <v>577441</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2128,13 @@
         <v>74264</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -2152,13 +2143,13 @@
         <v>83494</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -2167,13 +2158,13 @@
         <v>157758</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2179,13 @@
         <v>11893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2203,13 +2194,13 @@
         <v>10724</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2218,13 +2209,13 @@
         <v>22617</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2230,13 @@
         <v>727148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1043</v>
@@ -2254,13 +2245,13 @@
         <v>870926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1718</v>
@@ -2269,18 +2260,18 @@
         <v>1598074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2283,13 @@
         <v>424112</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>550</v>
@@ -2307,13 +2298,13 @@
         <v>427464</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>952</v>
@@ -2322,13 +2313,13 @@
         <v>851576</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2334,13 @@
         <v>382776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>668</v>
@@ -2358,13 +2349,13 @@
         <v>487620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>1091</v>
@@ -2373,13 +2364,13 @@
         <v>870396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2385,13 @@
         <v>136084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -2409,13 +2400,13 @@
         <v>202147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>449</v>
@@ -2424,13 +2415,13 @@
         <v>338231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2436,13 @@
         <v>20530</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -2460,13 +2451,13 @@
         <v>31818</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>71</v>
@@ -2475,13 +2466,13 @@
         <v>52348</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2487,13 @@
         <v>963503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1559</v>
@@ -2511,13 +2502,13 @@
         <v>1149049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>2563</v>
@@ -2526,13 +2517,13 @@
         <v>2112552</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,28 +2540,28 @@
         <v>1690724</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>2007</v>
       </c>
       <c r="I29" s="7">
-        <v>1664985</v>
+        <v>1664984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>3478</v>
@@ -2579,13 +2570,13 @@
         <v>3355708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2591,13 @@
         <v>1191545</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>2217</v>
@@ -2615,13 +2606,13 @@
         <v>1455801</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>3526</v>
@@ -2630,13 +2621,13 @@
         <v>2647346</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,28 +2642,28 @@
         <v>409683</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>979</v>
       </c>
       <c r="I31" s="7">
-        <v>590755</v>
+        <v>590754</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>1472</v>
@@ -2681,13 +2672,13 @@
         <v>1000437</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2693,13 @@
         <v>78456</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -2717,13 +2708,13 @@
         <v>85146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>229</v>
@@ -2732,13 +2723,13 @@
         <v>163601</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,28 +2744,28 @@
         <v>3370407</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>5344</v>
       </c>
       <c r="I33" s="7">
-        <v>3796686</v>
+        <v>3796685</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>8705</v>
@@ -2783,18 +2774,18 @@
         <v>7167092</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2813EDEE-9E04-4EB5-9705-D624D856BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6D3A52-6737-4CC1-A3BB-4D0C0A23CB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E19C70BD-D274-4B5D-B5A9-C1051515ABCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C9A251-838A-42E3-ABA9-6356AF66A584}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -188,7 +188,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>44,73%</t>
@@ -296,7 +296,7 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,2%</t>
@@ -404,7 +404,7 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>53,52%</t>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0B4B0-796F-4FDC-9B70-F48288A8D064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DA2CCF-9B1E-4E69-A2D7-9D4985DD40E0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6D3A52-6737-4CC1-A3BB-4D0C0A23CB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A896646-C433-41C4-A07C-F972F0D87C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C9A251-838A-42E3-ABA9-6356AF66A584}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{255F808D-CE15-49FB-A0BA-598A5AF38ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,649 +74,658 @@
     <t>52,35%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>33,5%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>39,73%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>14,39%</t>
+    <t>14,5%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>43,85%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>37,35%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DA2CCF-9B1E-4E69-A2D7-9D4985DD40E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CF37B1-6CE5-4D90-8EB3-6EA6E07EF7DD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1429,7 +1438,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1438,13 +1447,13 @@
         <v>6244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1468,13 @@
         <v>98014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>242</v>
@@ -1474,13 +1483,13 @@
         <v>130357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>355</v>
@@ -1489,18 +1498,18 @@
         <v>228371</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1512,13 +1521,13 @@
         <v>244624</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>353</v>
@@ -1527,10 +1536,10 @@
         <v>247966</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>56</v>
@@ -1599,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1623,13 @@
         <v>82096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -1629,13 +1638,13 @@
         <v>103846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
@@ -1644,13 +1653,13 @@
         <v>185942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1674,13 @@
         <v>23177</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1680,13 +1689,13 @@
         <v>15910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -1695,13 +1704,13 @@
         <v>39087</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1725,13 @@
         <v>546904</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>991</v>
@@ -1731,13 +1740,13 @@
         <v>590632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1600</v>
@@ -1746,18 +1755,18 @@
         <v>1137536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1778,13 @@
         <v>581548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -1784,28 +1793,28 @@
         <v>486051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
       </c>
       <c r="N14" s="7">
-        <v>1067598</v>
+        <v>1067599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1829,13 @@
         <v>329551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>583</v>
@@ -1835,13 +1844,13 @@
         <v>369670</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>936</v>
@@ -1850,13 +1859,13 @@
         <v>699221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1880,13 @@
         <v>102895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>297</v>
@@ -1886,13 +1895,13 @@
         <v>177541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
@@ -1901,13 +1910,13 @@
         <v>280435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1931,13 @@
         <v>20846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1937,13 +1946,13 @@
         <v>22459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -1952,13 +1961,13 @@
         <v>43305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1982,13 @@
         <v>1034839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1509</v>
@@ -1988,33 +1997,33 @@
         <v>1055721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2469</v>
       </c>
       <c r="N18" s="7">
-        <v>2090559</v>
+        <v>2090560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2035,13 @@
         <v>389134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -2041,13 +2050,13 @@
         <v>451124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>760</v>
@@ -2056,13 +2065,13 @@
         <v>840258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2086,13 @@
         <v>251857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -2092,13 +2101,13 @@
         <v>325584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>724</v>
@@ -2107,13 +2116,13 @@
         <v>577441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2137,13 @@
         <v>74264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -2143,13 +2152,13 @@
         <v>83494</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -2158,13 +2167,13 @@
         <v>157758</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2188,13 @@
         <v>11893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2194,13 +2203,13 @@
         <v>10724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2209,13 +2218,13 @@
         <v>22617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2239,13 @@
         <v>727148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1043</v>
@@ -2245,13 +2254,13 @@
         <v>870926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1718</v>
@@ -2260,18 +2269,18 @@
         <v>1598074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2292,13 @@
         <v>424112</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>550</v>
@@ -2298,13 +2307,13 @@
         <v>427464</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>952</v>
@@ -2313,13 +2322,13 @@
         <v>851576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2343,13 @@
         <v>382776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>668</v>
@@ -2349,13 +2358,13 @@
         <v>487620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1091</v>
@@ -2364,13 +2373,13 @@
         <v>870396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2394,13 @@
         <v>136084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -2400,13 +2409,13 @@
         <v>202147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>449</v>
@@ -2415,13 +2424,13 @@
         <v>338231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2445,13 @@
         <v>20530</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -2451,13 +2460,13 @@
         <v>31818</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>71</v>
@@ -2466,13 +2475,13 @@
         <v>52348</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2496,13 @@
         <v>963503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1559</v>
@@ -2502,13 +2511,13 @@
         <v>1149049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>2563</v>
@@ -2517,13 +2526,13 @@
         <v>2112552</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,28 +2549,28 @@
         <v>1690724</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>2007</v>
       </c>
       <c r="I29" s="7">
-        <v>1664984</v>
+        <v>1664985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>3478</v>
@@ -2570,13 +2579,13 @@
         <v>3355708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2600,13 @@
         <v>1191545</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>2217</v>
@@ -2606,13 +2615,13 @@
         <v>1455801</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>3526</v>
@@ -2621,13 +2630,13 @@
         <v>2647346</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,28 +2651,28 @@
         <v>409683</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>979</v>
       </c>
       <c r="I31" s="7">
-        <v>590754</v>
+        <v>590755</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>1472</v>
@@ -2672,13 +2681,13 @@
         <v>1000437</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2702,13 @@
         <v>78456</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -2708,13 +2717,13 @@
         <v>85146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>229</v>
@@ -2723,13 +2732,13 @@
         <v>163601</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,28 +2753,28 @@
         <v>3370407</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>5344</v>
       </c>
       <c r="I33" s="7">
-        <v>3796685</v>
+        <v>3796686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>8705</v>
@@ -2774,18 +2783,18 @@
         <v>7167092</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
